--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul0\OneDrive\Escritorio\Other\projetcs\first_chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B54D3-D3CE-4A0A-9C5B-73CCDCA58785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F305959A-715A-4FAC-8FA5-AB8EC8B7296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fo" sheetId="1" r:id="rId1"/>
-    <sheet name="bo" sheetId="2" r:id="rId2"/>
+    <sheet name="bo" sheetId="2" r:id="rId1"/>
+    <sheet name="fo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Variable</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Whether the application was funded (1 = Yes, 0 = No)</t>
   </si>
   <si>
-    <t>Amount funded</t>
-  </si>
-  <si>
     <t>Down payment percentage</t>
   </si>
   <si>
@@ -170,15 +167,9 @@
     <t>{0, 1}</t>
   </si>
   <si>
-    <t>1000 to 500000</t>
-  </si>
-  <si>
     <t>0.0 to 0.4</t>
   </si>
   <si>
-    <t>FundedAmt * DownPayment_pct</t>
-  </si>
-  <si>
     <t>US state codes (e.g., AL, CA, NY)</t>
   </si>
   <si>
@@ -200,56 +191,328 @@
     <t>{'A', 'B', 'C', 'D', 'E'}</t>
   </si>
   <si>
-    <t>AsOfDate</t>
-  </si>
-  <si>
     <t>6 to 24</t>
   </si>
   <si>
     <t>Paynet MasterScore</t>
   </si>
   <si>
-    <t>approved</t>
-  </si>
-  <si>
-    <t>df information</t>
-  </si>
-  <si>
-    <t>30/11/2022</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>28/02/2023</t>
-  </si>
-  <si>
-    <t>number_of_days_delinquet</t>
-  </si>
-  <si>
-    <t>As of date</t>
-  </si>
-  <si>
-    <t>30/04/2023</t>
-  </si>
-  <si>
-    <t>31/03/2023</t>
-  </si>
-  <si>
-    <t>31/05/2024</t>
-  </si>
-  <si>
-    <t>30/06/2024</t>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>as_of_date</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The date (in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>dd/mm/yyyy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> format) representing the end of the month for each payment.</t>
+    </r>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Application number, a unique identifier for each application.</t>
+  </si>
+  <si>
+    <t>number_of_days_delinquent</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>outstanding_balance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial value is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>FundedAmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the original dataframe, decreasing each month by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>FundedAmt / Term</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, unless </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number_of_days_delinquent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is non-zero.</t>
+    </r>
+  </si>
+  <si>
+    <t>chargeoff_amt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>outstanding_balance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiplied by a random factor (0.70, 0.80, 0.90, or 1), only for records where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number_of_days_delinquent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is non-zero. Converted to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>NaN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for non-final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>as_of_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> records.</t>
+    </r>
+  </si>
+  <si>
+    <t>def3012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates whether an application had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number_of_days_delinquent &gt;= 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the first 12 months. 1 if true, otherwise 0.</t>
+    </r>
+  </si>
+  <si>
+    <t>def6012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates whether an application had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number_of_days_delinquent &gt;= 60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the first 12 months. 1 if true, otherwise 0.</t>
+    </r>
+  </si>
+  <si>
+    <t>def3018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates whether an application had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number_of_days_delinquent &gt;= 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the first 18 months. 1 if true, otherwise 0.</t>
+    </r>
+  </si>
+  <si>
+    <t>def6018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates whether an application had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>number_of_days_delinquent &gt;= 60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the first 18 months. 1 if true, otherwise 0.</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of days an application is delinquent. It is set to 0 unless assigned a random value (30, 45, 60, or 90) for 100 worst scores of the approved applications.</t>
+  </si>
+  <si>
+    <t>RequestedAmt</t>
+  </si>
+  <si>
+    <t>Amount requested</t>
+  </si>
+  <si>
+    <t>1000 to 200000</t>
+  </si>
+  <si>
+    <t>RequestedAmt * DownPayment_pct</t>
+  </si>
+  <si>
+    <t>Amount funded if status = 'approved'</t>
+  </si>
+  <si>
+    <t>RequestedAmt * (1 - DownPayment_pct)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,22 +530,27 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFC5C8C6"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FFC5C8C6"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,16 +585,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -335,19 +648,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,450 +974,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB196D3D-A632-49AE-97A8-96B8E400ADA6}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB196D3D-A632-49AE-97A8-96B8E400ADA6}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>118638</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44893</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2">
-        <v>118638</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>